--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed5/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.654</v>
+        <v>16.251</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.616</v>
+        <v>5.492999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.192</v>
+        <v>17.165</v>
       </c>
     </row>
     <row r="15">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.294</v>
+        <v>16.117</v>
       </c>
     </row>
     <row r="27">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.246</v>
+        <v>16.232</v>
       </c>
     </row>
     <row r="32">
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.108</v>
+        <v>6.453</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.344</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="36">
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.48</v>
+        <v>7.987</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.74</v>
+        <v>16.737</v>
       </c>
     </row>
     <row r="38">
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.94</v>
+        <v>5.342000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.61</v>
+        <v>16.749</v>
       </c>
     </row>
     <row r="46">
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.154</v>
+        <v>6.334</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.845999999999999</v>
+        <v>5.155</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.683999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.529</v>
       </c>
     </row>
     <row r="58">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.922</v>
+        <v>5.286</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.616</v>
+        <v>5.002000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.616</v>
+        <v>5.380999999999999</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>6.322</v>
+        <v>6.219</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>5.952</v>
+        <v>5.217</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4</v>
+        <v>16.749</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.22</v>
+        <v>16.436</v>
       </c>
     </row>
   </sheetData>
